--- a/assessment_documentation/Gantt Chart Draft 01.xlsx
+++ b/assessment_documentation/Gantt Chart Draft 01.xlsx
@@ -1624,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>

--- a/assessment_documentation/Gantt Chart Draft 01.xlsx
+++ b/assessment_documentation/Gantt Chart Draft 01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12405" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12410" windowHeight="8600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,11 +503,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1504921472"/>
-        <c:axId val="1504908960"/>
+        <c:axId val="255677840"/>
+        <c:axId val="255679472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1504921472"/>
+        <c:axId val="255677840"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -550,7 +550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1504908960"/>
+        <c:crossAx val="255679472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1504908960"/>
+        <c:axId val="255679472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42474"/>
@@ -592,7 +592,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -611,7 +611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1504921472"/>
+        <c:crossAx val="255677840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -1211,16 +1211,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>476515</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>59698</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533665</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>126373</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1513,16 +1513,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" s="1">
         <v>42289</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>42380</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1625,18 +1625,18 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" customWidth="1"/>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>-185</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>42474</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>28</v>
       </c>

--- a/assessment_documentation/Gantt Chart Draft 01.xlsx
+++ b/assessment_documentation/Gantt Chart Draft 01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12410" windowHeight="8600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12405" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Week 1</t>
   </si>
@@ -96,28 +96,43 @@
     <t>Setup Development Environment</t>
   </si>
   <si>
-    <t>Learn Plugin Interface</t>
-  </si>
-  <si>
-    <t>Build basic iteration</t>
-  </si>
-  <si>
     <t>Display system-wide key access</t>
   </si>
   <si>
-    <t>Implement restrictions and configuration</t>
-  </si>
-  <si>
     <t>User Test and Review</t>
   </si>
   <si>
-    <t>Build revised iteration</t>
-  </si>
-  <si>
-    <t>Implement custom layouts</t>
-  </si>
-  <si>
     <t>Code and Write up results</t>
+  </si>
+  <si>
+    <t>Create GUI</t>
+  </si>
+  <si>
+    <t>Restrict key access</t>
+  </si>
+  <si>
+    <t>Add configuration options</t>
+  </si>
+  <si>
+    <t>Create Plugin Interface</t>
+  </si>
+  <si>
+    <t>Build empty plugin</t>
+  </si>
+  <si>
+    <t>Create custom layouts</t>
+  </si>
+  <si>
+    <t>Revise Requirements</t>
+  </si>
+  <si>
+    <t>Implement new features</t>
+  </si>
+  <si>
+    <t>Build revised plugin</t>
+  </si>
+  <si>
+    <t>Project Writeup</t>
   </si>
 </sst>
 </file>
@@ -279,9 +294,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$14</c:f>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -298,38 +313,53 @@
                   <c:v>Code Review and Research</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Learn Plugin Interface</c:v>
+                  <c:v>Create Plugin Interface</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Build basic iteration</c:v>
+                  <c:v>Build empty plugin</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Display system-wide key access</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Implement restrictions and configuration</c:v>
+                  <c:v>Restrict key access</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Create GUI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Add configuration options</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>User Test and Review</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Code and Write up results</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Implement custom layouts</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Build revised iteration</c:v>
+                <c:pt idx="13">
+                  <c:v>Create custom layouts</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Revise Requirements</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Implement new features</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Build revised plugin</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Project Writeup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$14</c:f>
+              <c:f>Sheet2!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>42289</c:v>
                 </c:pt>
@@ -352,22 +382,37 @@
                   <c:v>42334</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>42348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42390</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42404</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42404</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42432</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42453</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>42334</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42348</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42369</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42376</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42376</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,9 +444,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$14</c:f>
+              <c:f>Sheet2!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Project Proposal</c:v>
                 </c:pt>
@@ -418,38 +463,53 @@
                   <c:v>Code Review and Research</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Learn Plugin Interface</c:v>
+                  <c:v>Create Plugin Interface</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Build basic iteration</c:v>
+                  <c:v>Build empty plugin</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Display system-wide key access</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Implement restrictions and configuration</c:v>
+                  <c:v>Restrict key access</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Create GUI</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Add configuration options</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>User Test and Review</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>Code and Write up results</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Implement custom layouts</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Build revised iteration</c:v>
+                <c:pt idx="13">
+                  <c:v>Create custom layouts</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Revise Requirements</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Implement new features</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Build revised plugin</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Project Writeup</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$14</c:f>
+              <c:f>Sheet2!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>31</c:v>
                 </c:pt>
@@ -469,25 +529,40 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,11 +578,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="255677840"/>
-        <c:axId val="255679472"/>
+        <c:axId val="1577695600"/>
+        <c:axId val="1577698864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255677840"/>
+        <c:axId val="1577695600"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -550,7 +625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255679472"/>
+        <c:crossAx val="1577698864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -558,7 +633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255679472"/>
+        <c:axId val="1577698864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42474"/>
@@ -611,7 +686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255677840"/>
+        <c:crossAx val="1577695600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -656,8 +731,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1211,16 +1286,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>208989</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>533665</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>126373</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>599779</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>186324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1513,16 +1588,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>42289</v>
       </c>
@@ -1566,7 +1641,7 @@
         <v>42380</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1622,21 +1697,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.81640625" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1675,7 +1750,7 @@
         <v>-185</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1686,11 +1761,11 @@
         <v>42310</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">SUM(C3-B3)</f>
+        <f t="shared" ref="D3:D15" si="0">SUM(C3-B3)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1709,7 +1784,7 @@
         <v>42474</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1724,7 +1799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1739,9 +1814,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>42327</v>
@@ -1754,109 +1829,184 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>42334</v>
       </c>
       <c r="C8" s="1">
-        <v>42341</v>
+        <v>42348</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>42334</v>
+        <v>42348</v>
       </c>
       <c r="C9" s="1">
-        <v>42355</v>
+        <v>42383</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
-        <v>42348</v>
+        <v>42369</v>
       </c>
       <c r="C10" s="1">
-        <v>42369</v>
+        <v>42390</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
-        <v>42369</v>
+        <v>42390</v>
       </c>
       <c r="C11" s="1">
-        <v>42376</v>
+        <v>42404</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <v>42376</v>
+        <v>42404</v>
       </c>
       <c r="C12" s="1">
-        <v>42383</v>
+        <v>42418</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
-        <v>42376</v>
+        <v>42404</v>
       </c>
       <c r="C13" s="1">
-        <v>42383</v>
+        <v>42411</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
-        <v>42383</v>
+        <v>42411</v>
       </c>
       <c r="C14" s="1">
-        <v>42390</v>
+        <v>42418</v>
       </c>
       <c r="D14">
-        <f>SUM(C14-B14)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42418</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42432</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42432</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42439</v>
+      </c>
+      <c r="D16">
+        <f>SUM(C16-B16)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42439</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42460</v>
+      </c>
+      <c r="D17">
+        <f>SUM(C17-B17)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42453</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42460</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D19" si="1">SUM(C18-B18)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42334</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42471</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
